--- a/02-PROYECTO/04_DOCS/Inasistencias.xlsx
+++ b/02-PROYECTO/04_DOCS/Inasistencias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\07-SQL-GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\07-SQL-GIT\02-PROYECTO\04_DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B33CF3E7-1A50-4EFA-9D19-8E03262D5669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854BE63B-FE6E-47A4-8C9A-13031D3AC40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{70E979F2-2279-458E-A363-3A37B44FC360}"/>
+    <workbookView xWindow="2295" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{70E979F2-2279-458E-A363-3A37B44FC360}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +61,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,9 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7819CE-DF91-47F3-876C-B9FD56FF2976}">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C161"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="F281" sqref="F281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1128,10 +1137,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1142,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1164,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1175,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1194,10 +1203,10 @@
         <v>70</v>
       </c>
       <c r="C71" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1208,7 +1217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1216,10 +1225,10 @@
         <v>72</v>
       </c>
       <c r="C73" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1230,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1241,7 +1250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1252,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1262,8 +1271,9 @@
       <c r="C77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1271,10 +1281,10 @@
         <v>77</v>
       </c>
       <c r="C78" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1285,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1392,7 +1402,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1920,7 +1930,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2186,6 +2196,1335 @@
       <c r="C161" s="1">
         <v>5</v>
       </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1">
+        <v>161</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>162</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
+        <v>163</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>164</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1">
+        <v>165</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>166</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1">
+        <v>167</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>168</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1">
+        <v>169</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
+        <v>170</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>171</v>
+      </c>
+      <c r="C172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>172</v>
+      </c>
+      <c r="C173" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>173</v>
+      </c>
+      <c r="C174" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>174</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>175</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
+        <v>176</v>
+      </c>
+      <c r="C177" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
+        <v>177</v>
+      </c>
+      <c r="C178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>178</v>
+      </c>
+      <c r="C179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>179</v>
+      </c>
+      <c r="C180" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>180</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1">
+        <v>181</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
+        <v>182</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1">
+        <v>183</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1">
+        <v>184</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1">
+        <v>185</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1">
+        <v>186</v>
+      </c>
+      <c r="C187" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1">
+        <v>187</v>
+      </c>
+      <c r="C188" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1">
+        <v>188</v>
+      </c>
+      <c r="C189" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1">
+        <v>189</v>
+      </c>
+      <c r="C190" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1">
+        <v>190</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1">
+        <v>191</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1">
+        <v>192</v>
+      </c>
+      <c r="C193" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1">
+        <v>193</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1">
+        <v>194</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
+        <v>195</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1">
+        <v>196</v>
+      </c>
+      <c r="C197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1">
+        <v>197</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1">
+        <v>198</v>
+      </c>
+      <c r="C199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1">
+        <v>199</v>
+      </c>
+      <c r="C200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1">
+        <v>200</v>
+      </c>
+      <c r="C201" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1">
+        <v>201</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1">
+        <v>202</v>
+      </c>
+      <c r="C203" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1">
+        <v>203</v>
+      </c>
+      <c r="C204" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>204</v>
+      </c>
+      <c r="C205" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1">
+        <v>205</v>
+      </c>
+      <c r="C206" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1">
+        <v>206</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1">
+        <v>207</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1">
+        <v>208</v>
+      </c>
+      <c r="C209" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1">
+        <v>209</v>
+      </c>
+      <c r="C210" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1">
+        <v>210</v>
+      </c>
+      <c r="C211" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1">
+        <v>211</v>
+      </c>
+      <c r="C212" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1">
+        <v>212</v>
+      </c>
+      <c r="C213" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1">
+        <v>213</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1">
+        <v>214</v>
+      </c>
+      <c r="C215" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1">
+        <v>215</v>
+      </c>
+      <c r="C216" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1">
+        <v>216</v>
+      </c>
+      <c r="C217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1">
+        <v>217</v>
+      </c>
+      <c r="C218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1">
+        <v>218</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1">
+        <v>219</v>
+      </c>
+      <c r="C220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1">
+        <v>220</v>
+      </c>
+      <c r="C221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1">
+        <v>221</v>
+      </c>
+      <c r="C222" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1">
+        <v>222</v>
+      </c>
+      <c r="C223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1">
+        <v>223</v>
+      </c>
+      <c r="C224" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1">
+        <v>224</v>
+      </c>
+      <c r="C225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1">
+        <v>225</v>
+      </c>
+      <c r="C226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1">
+        <v>226</v>
+      </c>
+      <c r="C227" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1">
+        <v>227</v>
+      </c>
+      <c r="C228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1">
+        <v>228</v>
+      </c>
+      <c r="C229" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1">
+        <v>229</v>
+      </c>
+      <c r="C230" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1">
+        <v>230</v>
+      </c>
+      <c r="C231" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1">
+        <v>231</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1">
+        <v>232</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1">
+        <v>233</v>
+      </c>
+      <c r="C234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1">
+        <v>234</v>
+      </c>
+      <c r="C235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1">
+        <v>235</v>
+      </c>
+      <c r="C236" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1">
+        <v>236</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1">
+        <v>237</v>
+      </c>
+      <c r="C238" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1">
+        <v>238</v>
+      </c>
+      <c r="C239" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1">
+        <v>239</v>
+      </c>
+      <c r="C240" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1">
+        <v>240</v>
+      </c>
+      <c r="C241" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1">
+        <v>241</v>
+      </c>
+      <c r="C242" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1">
+        <v>242</v>
+      </c>
+      <c r="C243" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1">
+        <v>243</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1">
+        <v>244</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1">
+        <v>245</v>
+      </c>
+      <c r="C246" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1">
+        <v>246</v>
+      </c>
+      <c r="C247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1">
+        <v>247</v>
+      </c>
+      <c r="C248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1">
+        <v>248</v>
+      </c>
+      <c r="C249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1">
+        <v>249</v>
+      </c>
+      <c r="C250" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1">
+        <v>250</v>
+      </c>
+      <c r="C251" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1">
+        <v>251</v>
+      </c>
+      <c r="C252" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1">
+        <v>252</v>
+      </c>
+      <c r="C253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1">
+        <v>253</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1">
+        <v>254</v>
+      </c>
+      <c r="C255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1">
+        <v>255</v>
+      </c>
+      <c r="C256" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1">
+        <v>256</v>
+      </c>
+      <c r="C257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1">
+        <v>257</v>
+      </c>
+      <c r="C258" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1">
+        <v>258</v>
+      </c>
+      <c r="C259" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1">
+        <v>259</v>
+      </c>
+      <c r="C260" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1">
+        <v>260</v>
+      </c>
+      <c r="C261" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1">
+        <v>261</v>
+      </c>
+      <c r="C262" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1">
+        <v>262</v>
+      </c>
+      <c r="C263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1">
+        <v>263</v>
+      </c>
+      <c r="C264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1">
+        <v>264</v>
+      </c>
+      <c r="C265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1">
+        <v>265</v>
+      </c>
+      <c r="C266" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1">
+        <v>266</v>
+      </c>
+      <c r="C267" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1">
+        <v>267</v>
+      </c>
+      <c r="C268" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1">
+        <v>268</v>
+      </c>
+      <c r="C269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1">
+        <v>269</v>
+      </c>
+      <c r="C270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1">
+        <v>270</v>
+      </c>
+      <c r="C271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1">
+        <v>271</v>
+      </c>
+      <c r="C272" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1">
+        <v>272</v>
+      </c>
+      <c r="C273" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1">
+        <v>273</v>
+      </c>
+      <c r="C274" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1">
+        <v>274</v>
+      </c>
+      <c r="C275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1">
+        <v>275</v>
+      </c>
+      <c r="C276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1">
+        <v>276</v>
+      </c>
+      <c r="C277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1">
+        <v>277</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1">
+        <v>278</v>
+      </c>
+      <c r="C279" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1">
+        <v>279</v>
+      </c>
+      <c r="C280" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1">
+        <v>280</v>
+      </c>
+      <c r="C281" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
